--- a/xBee_to_Platform.xlsx
+++ b/xBee_to_Platform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16820" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>last 4 digits</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>valiant</t>
+  </si>
+  <si>
+    <t>DEAD</t>
   </si>
 </sst>
 </file>
@@ -486,23 +489,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -516,7 +519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -530,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -544,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -558,18 +561,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
       <c r="D6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -583,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -594,12 +600,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -607,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -621,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -633,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -644,7 +650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -701,7 +707,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -713,7 +719,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xBee_to_Platform.xlsx
+++ b/xBee_to_Platform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16820" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>last 4 digits</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>DEAD</t>
+  </si>
+  <si>
+    <t>UAV</t>
   </si>
 </sst>
 </file>
@@ -487,25 +490,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -519,7 +523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -533,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -546,8 +550,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -560,8 +567,11 @@
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -575,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -589,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -600,12 +610,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -613,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -627,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -639,7 +649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -650,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -661,7 +671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -673,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -707,7 +717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -719,7 +729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
